--- a/20231011/customer_data.xlsx
+++ b/20231011/customer_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yajim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9A9457-0DA9-419C-AA82-1650947C4D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A76EC5-FA38-4426-8B7A-485C4341B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="1380" windowWidth="22644" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="660" windowWidth="22644" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="17">
   <si>
     <t>顧客ID</t>
   </si>
@@ -444,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -484,9 +486,6 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -516,9 +515,6 @@
       <c r="C3">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3">
         <v>450</v>
       </c>
@@ -585,9 +581,6 @@
       </c>
       <c r="G5">
         <v>1.4</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
       </c>
       <c r="I5">
         <v>8</v>

--- a/20231011/customer_data.xlsx
+++ b/20231011/customer_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yajim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A76EC5-FA38-4426-8B7A-485C4341B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183322C-7E9A-44AD-8D9A-D919FCECF174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="660" windowWidth="22644" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499:XFD499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14870,31 +14870,31 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>10588383</v>
+        <v>30507179</v>
       </c>
       <c r="B499" t="s">
         <v>9</v>
       </c>
       <c r="C499">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D499" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E499">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="F499" t="s">
         <v>11</v>
       </c>
       <c r="G499">
-        <v>1.04</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I499">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
